--- a/docs/taste2d_suppl_tables.xlsx
+++ b/docs/taste2d_suppl_tables.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jg1671/Documents/GitHub/taste2d/run/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621ED861-5256-E945-B7DD-E73A07B76D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43A639F-67E3-0649-9C50-F7A90CA36F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16040" activeTab="2" xr2:uid="{47A91C23-8314-1249-AAAB-5A2A6B8A2924}"/>
+    <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="16040" activeTab="2" xr2:uid="{47A91C23-8314-1249-AAAB-5A2A6B8A2924}"/>
   </bookViews>
   <sheets>
     <sheet name="ST1" sheetId="1" r:id="rId1"/>
     <sheet name="ST2" sheetId="3" r:id="rId2"/>
     <sheet name="ST3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="546">
   <si>
     <t>EUR</t>
   </si>
@@ -1097,15 +1098,712 @@
   <si>
     <t>PVI/PAV</t>
   </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>56 ± 8</t>
+  </si>
+  <si>
+    <t>56 ± 9</t>
+  </si>
+  <si>
+    <t>57 ± 8</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>39970 (54%)</t>
+  </si>
+  <si>
+    <t>6693 (54%)</t>
+  </si>
+  <si>
+    <t>42 (53%)</t>
+  </si>
+  <si>
+    <t>114 (54%)</t>
+  </si>
+  <si>
+    <t>58003 (54%)</t>
+  </si>
+  <si>
+    <t>287 (52%)</t>
+  </si>
+  <si>
+    <t>4904 (54%)</t>
+  </si>
+  <si>
+    <t>27 (52%)</t>
+  </si>
+  <si>
+    <t>81 (55%)</t>
+  </si>
+  <si>
+    <t>20939 (54%)</t>
+  </si>
+  <si>
+    <t>26.9 ± 4.4</t>
+  </si>
+  <si>
+    <t>25.9 ± 4.4</t>
+  </si>
+  <si>
+    <t>27.1 ± 4.6</t>
+  </si>
+  <si>
+    <t>26.7 ± 4.4</t>
+  </si>
+  <si>
+    <t>27.1 ± 3.8</t>
+  </si>
+  <si>
+    <t>27.7 ± 4.4</t>
+  </si>
+  <si>
+    <t>6860 (9%)</t>
+  </si>
+  <si>
+    <t>1187 (10%)</t>
+  </si>
+  <si>
+    <t>4 (5%)</t>
+  </si>
+  <si>
+    <t>19 (9%)</t>
+  </si>
+  <si>
+    <t>10092 (9%)</t>
+  </si>
+  <si>
+    <t>56 (10%)</t>
+  </si>
+  <si>
+    <t>884 (10%)</t>
+  </si>
+  <si>
+    <t>5 (10%)</t>
+  </si>
+  <si>
+    <t>18 (12%)</t>
+  </si>
+  <si>
+    <t>3571 (9%)</t>
+  </si>
+  <si>
+    <t>25282 (34%)</t>
+  </si>
+  <si>
+    <t>4268 (34%)</t>
+  </si>
+  <si>
+    <t>27 (34%)</t>
+  </si>
+  <si>
+    <t>75 (35%)</t>
+  </si>
+  <si>
+    <t>36813 (34%)</t>
+  </si>
+  <si>
+    <t>192 (35%)</t>
+  </si>
+  <si>
+    <t>3038 (33%)</t>
+  </si>
+  <si>
+    <t>15 (29%)</t>
+  </si>
+  <si>
+    <t>49 (33%)</t>
+  </si>
+  <si>
+    <t>13310 (34%)</t>
+  </si>
+  <si>
+    <t>41481 (56%)</t>
+  </si>
+  <si>
+    <t>6923 (56%)</t>
+  </si>
+  <si>
+    <t>48 (61%)</t>
+  </si>
+  <si>
+    <t>119 (56%)</t>
+  </si>
+  <si>
+    <t>59864 (56%)</t>
+  </si>
+  <si>
+    <t>307 (55%)</t>
+  </si>
+  <si>
+    <t>5157 (57%)</t>
+  </si>
+  <si>
+    <t>32 (62%)</t>
+  </si>
+  <si>
+    <t>80 (54%)</t>
+  </si>
+  <si>
+    <t>21758 (56%)</t>
+  </si>
+  <si>
+    <t>16605 (23%)</t>
+  </si>
+  <si>
+    <t>2893 (23%)</t>
+  </si>
+  <si>
+    <t>18 (23%)</t>
+  </si>
+  <si>
+    <t>59 (28%)</t>
+  </si>
+  <si>
+    <t>24369 (23%)</t>
+  </si>
+  <si>
+    <t>122 (22%)</t>
+  </si>
+  <si>
+    <t>2093 (23%)</t>
+  </si>
+  <si>
+    <t>9 (17%)</t>
+  </si>
+  <si>
+    <t>46 (31%)</t>
+  </si>
+  <si>
+    <t>8715 (23%)</t>
+  </si>
+  <si>
+    <t>41718 (57%)</t>
+  </si>
+  <si>
+    <t>6885 (56%)</t>
+  </si>
+  <si>
+    <t>117 (55%)</t>
+  </si>
+  <si>
+    <t>60362 (57%)</t>
+  </si>
+  <si>
+    <t>306 (55%)</t>
+  </si>
+  <si>
+    <t>5106 (56%)</t>
+  </si>
+  <si>
+    <t>33 (63%)</t>
+  </si>
+  <si>
+    <t>79 (54%)</t>
+  </si>
+  <si>
+    <t>21943 (57%)</t>
+  </si>
+  <si>
+    <t>15300 (21%)</t>
+  </si>
+  <si>
+    <t>2600 (21%)</t>
+  </si>
+  <si>
+    <t>19 (24%)</t>
+  </si>
+  <si>
+    <t>37 (17%)</t>
+  </si>
+  <si>
+    <t>22038 (21%)</t>
+  </si>
+  <si>
+    <t>127 (23%)</t>
+  </si>
+  <si>
+    <t>1880 (21%)</t>
+  </si>
+  <si>
+    <t>10 (19%)</t>
+  </si>
+  <si>
+    <t>22 (15%)</t>
+  </si>
+  <si>
+    <t>7981 (21%)</t>
+  </si>
+  <si>
+    <t>16688 (23%)</t>
+  </si>
+  <si>
+    <t>2828 (23%)</t>
+  </si>
+  <si>
+    <t>21 (27%)</t>
+  </si>
+  <si>
+    <t>50 (23%)</t>
+  </si>
+  <si>
+    <t>23990 (22%)</t>
+  </si>
+  <si>
+    <t>128 (23%)</t>
+  </si>
+  <si>
+    <t>1950 (21%)</t>
+  </si>
+  <si>
+    <t>14 (27%)</t>
+  </si>
+  <si>
+    <t>35 (24%)</t>
+  </si>
+  <si>
+    <t>8462 (22%)</t>
+  </si>
+  <si>
+    <t>18569 (25%)</t>
+  </si>
+  <si>
+    <t>3116 (25%)</t>
+  </si>
+  <si>
+    <t>23 (29%)</t>
+  </si>
+  <si>
+    <t>55 (26%)</t>
+  </si>
+  <si>
+    <t>26998 (25%)</t>
+  </si>
+  <si>
+    <t>145 (26%)</t>
+  </si>
+  <si>
+    <t>2331 (26%)</t>
+  </si>
+  <si>
+    <t>33 (22%)</t>
+  </si>
+  <si>
+    <t>9641 (25%)</t>
+  </si>
+  <si>
+    <t>19497 (26%)</t>
+  </si>
+  <si>
+    <t>3324 (27%)</t>
+  </si>
+  <si>
+    <t>14 (18%)</t>
+  </si>
+  <si>
+    <t>49 (23%)</t>
+  </si>
+  <si>
+    <t>27812 (26%)</t>
+  </si>
+  <si>
+    <t>143 (26%)</t>
+  </si>
+  <si>
+    <t>2432 (27%)</t>
+  </si>
+  <si>
+    <t>28 (19%)</t>
+  </si>
+  <si>
+    <t>10277 (27%)</t>
+  </si>
+  <si>
+    <t>7794 (11%)</t>
+  </si>
+  <si>
+    <t>1270 (10%)</t>
+  </si>
+  <si>
+    <t>10 (13%)</t>
+  </si>
+  <si>
+    <t>23 (11%)</t>
+  </si>
+  <si>
+    <t>11498 (11%)</t>
+  </si>
+  <si>
+    <t>1009 (11%)</t>
+  </si>
+  <si>
+    <t>8 (15%)</t>
+  </si>
+  <si>
+    <t>23 (16%)</t>
+  </si>
+  <si>
+    <t>4172 (11%)</t>
+  </si>
+  <si>
+    <t>6881 (9%)</t>
+  </si>
+  <si>
+    <t>1136 (9%)</t>
+  </si>
+  <si>
+    <t>6 (8%)</t>
+  </si>
+  <si>
+    <t>21 (10%)</t>
+  </si>
+  <si>
+    <t>10193 (10%)</t>
+  </si>
+  <si>
+    <t>51 (9%)</t>
+  </si>
+  <si>
+    <t>848 (9%)</t>
+  </si>
+  <si>
+    <t>7 (13%)</t>
+  </si>
+  <si>
+    <t>21 (14%)</t>
+  </si>
+  <si>
+    <t>3782 (10%)</t>
+  </si>
+  <si>
+    <t>4194 (6%)</t>
+  </si>
+  <si>
+    <t>704 (6%)</t>
+  </si>
+  <si>
+    <t>5 (6%)</t>
+  </si>
+  <si>
+    <t>15 (7%)</t>
+  </si>
+  <si>
+    <t>6278 (6%)</t>
+  </si>
+  <si>
+    <t>32 (6%)</t>
+  </si>
+  <si>
+    <t>509 (6%)</t>
+  </si>
+  <si>
+    <t>7 (5%)</t>
+  </si>
+  <si>
+    <t>2305 (6%)</t>
+  </si>
+  <si>
+    <t>16 ± 20</t>
+  </si>
+  <si>
+    <t>11 ± 14</t>
+  </si>
+  <si>
+    <t>17 ± 22</t>
+  </si>
+  <si>
+    <t>16 ± 18</t>
+  </si>
+  <si>
+    <t>9 ± 13</t>
+  </si>
+  <si>
+    <t>19 ± 23</t>
+  </si>
+  <si>
+    <t>15 ± 20</t>
+  </si>
+  <si>
+    <t>139 ± 20</t>
+  </si>
+  <si>
+    <t>138 ± 22</t>
+  </si>
+  <si>
+    <t>141 ± 19</t>
+  </si>
+  <si>
+    <t>138 ± 20</t>
+  </si>
+  <si>
+    <t>139 ± 19</t>
+  </si>
+  <si>
+    <t>136 ± 17</t>
+  </si>
+  <si>
+    <t>140 ± 20</t>
+  </si>
+  <si>
+    <t>82 ± 11</t>
+  </si>
+  <si>
+    <t>80 ± 11</t>
+  </si>
+  <si>
+    <t>83 ± 11</t>
+  </si>
+  <si>
+    <t>83 ± 9</t>
+  </si>
+  <si>
+    <t>83 ± 10</t>
+  </si>
+  <si>
+    <t>1.7 ± 1</t>
+  </si>
+  <si>
+    <t>1.7 ± 0.9</t>
+  </si>
+  <si>
+    <t>1.7 ± 1.1</t>
+  </si>
+  <si>
+    <t>1.6 ± 0.9</t>
+  </si>
+  <si>
+    <t>3.6 ± 0.8</t>
+  </si>
+  <si>
+    <t>3.7 ± 0.8</t>
+  </si>
+  <si>
+    <t>3.7 ± 0.9</t>
+  </si>
+  <si>
+    <t>3.6 ± 0.9</t>
+  </si>
+  <si>
+    <t>1.5 ± 0.4</t>
+  </si>
+  <si>
+    <t>1.4 ± 0.4</t>
+  </si>
+  <si>
+    <t>555 (0.2%)</t>
+  </si>
+  <si>
+    <t>52 (0.02%)</t>
+  </si>
+  <si>
+    <t>9079 (3.8%)</t>
+  </si>
+  <si>
+    <t>79 (0.03%)</t>
+  </si>
+  <si>
+    <t>12378 (5.1%)</t>
+  </si>
+  <si>
+    <t>73623 (30.5%)</t>
+  </si>
+  <si>
+    <t>106769 (44.2%)</t>
+  </si>
+  <si>
+    <t>213 (0.09%)</t>
+  </si>
+  <si>
+    <t>38639 (16%)</t>
+  </si>
+  <si>
+    <t>147 (0.06%)</t>
+  </si>
+  <si>
+    <t>Smoking status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Previous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Never</t>
+  </si>
+  <si>
+    <t>Physical activity level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Moderate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  High</t>
+  </si>
+  <si>
+    <t>Alcohol intake frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3-4 drinks/week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1-2 drinks/week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1-3 drinks/month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Special occsions only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nondrinker</t>
+  </si>
+  <si>
+    <t>Biochemial parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  HDL, mmol/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LDL, mmol/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DBP, mmHg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SBP, mmHg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  log(Triglyceride), mmol/L</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (%)</t>
+    </r>
+  </si>
+  <si>
+    <t>BMI, kg/m2</t>
+  </si>
+  <si>
+    <t>Alcohol intake, g/day</t>
+  </si>
+  <si>
+    <t>Common TAS2R38 Diplotypes</t>
+  </si>
+  <si>
+    <t>Other TAS2R38 Diplotypes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Participant characteristics across </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TAS2R38 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>diplotypes</t>
+    </r>
+  </si>
+  <si>
+    <t>Total Sample</t>
+  </si>
+  <si>
+    <t>131174 (54%)</t>
+  </si>
+  <si>
+    <t>22717 (9%)</t>
+  </si>
+  <si>
+    <t>83140 (34%)</t>
+  </si>
+  <si>
+    <t>135895 (56%)</t>
+  </si>
+  <si>
+    <t>54977 (23%)</t>
+  </si>
+  <si>
+    <t>136714 (57%)</t>
+  </si>
+  <si>
+    <t>50061 (21%)</t>
+  </si>
+  <si>
+    <t>54208 (22%)</t>
+  </si>
+  <si>
+    <t>60996 (25%)</t>
+  </si>
+  <si>
+    <t>63638 (26%)</t>
+  </si>
+  <si>
+    <t>25883 (11%)</t>
+  </si>
+  <si>
+    <t>22964 (9%)</t>
+  </si>
+  <si>
+    <t>14063 (6%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1124,6 +1822,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1251,6 +1955,33 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1325,55 +2056,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1383,131 +2115,183 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1851,395 +2635,395 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="2" customWidth="1"/>
-    <col min="3" max="8" width="15.83203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="2.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="3" customWidth="1"/>
+    <col min="3" max="8" width="15.83203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2257,594 +3041,594 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="M5" sqref="M5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12" style="28" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="28" customWidth="1"/>
-    <col min="9" max="9" width="1.5" style="28" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" style="28" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="28" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="28" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" style="28" customWidth="1"/>
-    <col min="15" max="15" width="15.5" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="28"/>
+    <col min="1" max="1" width="11.83203125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="30" customWidth="1"/>
+    <col min="7" max="7" width="12" style="30" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="1.5" style="30" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" style="30" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="30" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" style="30" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="30" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-    </row>
-    <row r="2" spans="1:16" s="41" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+    </row>
+    <row r="2" spans="1:16" s="43" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="52"/>
+      <c r="P3" s="54"/>
     </row>
     <row r="4" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="39">
         <v>5589</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="39">
         <v>289953</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46">
+      <c r="D4" s="39"/>
+      <c r="E4" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48">
         <v>279805</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="48">
         <v>724</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="48">
         <v>2624</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4" s="48">
         <v>4062</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="48">
         <v>1745</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="48">
         <v>993</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="36">
         <v>0.50760000000000005</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="36">
         <v>0.40200000000000002</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="34">
+      <c r="D5" s="34"/>
+      <c r="E5" s="36">
         <v>0.45660000000000001</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="36">
         <v>0.68610000000000004</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="36">
         <v>0.50760000000000005</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="36">
         <v>0.64510000000000001</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34">
+      <c r="I5" s="36"/>
+      <c r="J5" s="36">
         <v>0.40200000000000002</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="36">
         <v>0.52500000000000002</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="55">
         <v>0.47899999999999998</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="36">
         <v>0.34499999999999997</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="36">
         <v>0.66100000000000003</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="36">
         <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="36">
         <v>0.42699999999999999</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="44">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="34">
+      <c r="D6" s="34"/>
+      <c r="E6" s="36">
         <v>0.49220000000000003</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="36">
         <v>0.26690000000000003</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="36">
         <v>0.3518</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="36">
         <v>0.35310000000000002</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34">
+      <c r="I6" s="36"/>
+      <c r="J6" s="36">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="36">
         <v>0.42</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="55">
         <v>0.309</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="36">
         <v>0.63100000000000001</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="36">
         <v>0.32800000000000001</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="36">
         <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="36">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="34">
+      <c r="D7" s="34"/>
+      <c r="E7" s="36">
         <v>3.56E-2</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="36">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="36">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="36">
         <v>0</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="36">
         <v>0.31</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="36">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="36">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="36">
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="36">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="36">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="34">
+      <c r="D8" s="34"/>
+      <c r="E8" s="36">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="36">
         <v>0</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="36">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="36">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34">
+      <c r="I8" s="36"/>
+      <c r="J8" s="36">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="36">
         <v>0</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="36">
         <v>0</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="36">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="36">
         <v>1.8E-3</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="36">
         <v>0</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="34">
+      <c r="D9" s="34"/>
+      <c r="E9" s="36">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="36">
         <v>0</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="36">
         <v>0</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="36">
         <v>0</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34">
+      <c r="I9" s="36"/>
+      <c r="J9" s="36">
         <v>0</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="36">
         <v>0</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="36">
         <v>0</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="36">
         <v>0</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="36">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="36">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="36">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="34">
+      <c r="D10" s="34"/>
+      <c r="E10" s="36">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="36">
         <v>1.9E-3</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="36">
         <v>1.5E-3</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="36">
         <v>0</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34">
+      <c r="I10" s="36"/>
+      <c r="J10" s="36">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="36">
         <v>0</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="55">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="M10" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="36">
         <v>0</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="36">
         <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="36">
         <v>3.39E-2</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="36">
         <v>2.3E-3</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="34">
+      <c r="D11" s="34"/>
+      <c r="E11" s="36">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="36">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="36">
         <v>0.13220000000000001</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="36">
         <v>0</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34">
+      <c r="I11" s="36"/>
+      <c r="J11" s="36">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="36">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="55">
         <v>0.2031</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="36">
         <v>0</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="36">
         <v>0</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="36">
         <v>2.92E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="36">
         <v>1E-3</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="36">
         <v>1E-4</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="34">
+      <c r="D12" s="34"/>
+      <c r="E12" s="36">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="36">
         <v>0</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="36">
         <v>0</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="36">
         <v>0</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34">
+      <c r="I12" s="36"/>
+      <c r="J12" s="36">
         <v>1E-4</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="36">
         <v>0</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="55">
         <v>0</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="M12" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="36">
         <v>0</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="P16" s="35"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="P16" s="37"/>
     </row>
     <row r="17" spans="10:16" x14ac:dyDescent="0.15">
-      <c r="P17" s="29"/>
+      <c r="P17" s="31"/>
     </row>
     <row r="18" spans="10:16" x14ac:dyDescent="0.15">
-      <c r="P18" s="29"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" spans="10:16" x14ac:dyDescent="0.15">
-      <c r="P19" s="29"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="10:16" x14ac:dyDescent="0.15">
-      <c r="P20" s="29"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" spans="10:16" x14ac:dyDescent="0.15">
-      <c r="J21" s="54"/>
-      <c r="P21" s="29"/>
+      <c r="J21" s="56"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" spans="10:16" x14ac:dyDescent="0.15">
-      <c r="J22" s="54"/>
-      <c r="P22" s="29"/>
+      <c r="J22" s="56"/>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" spans="10:16" x14ac:dyDescent="0.15">
-      <c r="P23" s="29"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="10:16" x14ac:dyDescent="0.15">
-      <c r="P24" s="29"/>
+      <c r="P24" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2859,775 +3643,775 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4869DC-CA35-C54C-B65D-A594C71BD5F7}">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="13" width="13.33203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="6"/>
+    <col min="3" max="13" width="13.33203125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P1" s="23"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="23"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="27"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="L3" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="P3" s="23"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="58"/>
+      <c r="P4" s="60"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="32" t="s">
+      <c r="K5" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="P5" s="58"/>
+      <c r="P5" s="60"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="32" t="s">
+      <c r="K6" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="P6" s="58"/>
+      <c r="P6" s="60"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="K7" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="32" t="s">
+      <c r="K7" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="P7" s="58"/>
+      <c r="P7" s="60"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="32" t="s">
+      <c r="K8" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="P8" s="23"/>
+      <c r="P8" s="24"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="5"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="I10" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="60" t="s">
+      <c r="I10" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="K10" s="60" t="s">
+      <c r="K10" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="P10" s="5"/>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="60" t="s">
+      <c r="H11" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="I11" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="60" t="s">
+      <c r="I11" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="60" t="s">
+      <c r="K11" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="L11" s="60" t="s">
+      <c r="L11" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="M11" s="60" t="s">
+      <c r="M11" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="P11" s="5"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="60" t="s">
+      <c r="I12" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="K12" s="60" t="s">
+      <c r="K12" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="M12" s="60" t="s">
+      <c r="M12" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="P12" s="5"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="I13" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="60" t="s">
+      <c r="I13" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="P13" s="5"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="P14" s="6"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="H15" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="60" t="s">
+      <c r="H15" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="K15" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="60" t="s">
+      <c r="K15" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="M15" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
+      <c r="M15" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="H16" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="60" t="s">
+      <c r="H16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="K16" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="60" t="s">
+      <c r="K16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="M16" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="55"/>
+      <c r="M16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="57"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="H17" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="60" t="s">
+      <c r="H17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="K17" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="60" t="s">
+      <c r="K17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="M17" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
+      <c r="M17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="H18" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="60" t="s">
+      <c r="H18" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="K18" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="60" t="s">
+      <c r="K18" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="M18" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
+      <c r="M18" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="58"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" s="60" t="s">
+      <c r="G20" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="K20" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="60" t="s">
+      <c r="K20" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="58"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="60" t="s">
+      <c r="G21" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="K21" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="M21" s="60" t="s">
+      <c r="K21" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="F22" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="G22" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="60" t="s">
+      <c r="G22" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="K22" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="M22" s="60" t="s">
+      <c r="K22" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" s="62" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3635,330 +4419,330 @@
       <c r="A23" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="G23" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" s="60" t="s">
+      <c r="G23" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="K23" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L23" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="M23" s="60" t="s">
+      <c r="K23" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="Q23" s="58"/>
+      <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="D24" s="61"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="55"/>
+      <c r="B24" s="34"/>
+      <c r="D24" s="63"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="57"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="G25" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="60" t="s">
+      <c r="G25" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="K25" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L25" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="M25" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="55"/>
+      <c r="K25" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="57"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="G26" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" s="60" t="s">
+      <c r="G26" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="K26" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L26" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
+      <c r="K26" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="G27" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="60" t="s">
+      <c r="G27" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="K27" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L27" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="M27" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
+      <c r="K27" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="G28" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="60" t="s">
+      <c r="G28" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="K28" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L28" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
+      <c r="K28" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="F30" s="60" t="s">
+      <c r="F30" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="H30" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J30" s="60" t="s">
+      <c r="H30" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="K30" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L30" s="60" t="s">
+      <c r="K30" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="M30" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
+      <c r="M30" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="62" t="s">
         <v>280</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="H31" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31" s="60" t="s">
+      <c r="H31" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="K31" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L31" s="60" t="s">
+      <c r="K31" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="M31" s="32" t="s">
+      <c r="M31" s="34" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3966,40 +4750,40 @@
       <c r="A32" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="F32" s="60" t="s">
+      <c r="F32" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="H32" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="60" t="s">
+      <c r="H32" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="K32" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L32" s="60" t="s">
+      <c r="K32" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="M32" s="32" t="s">
+      <c r="M32" s="34" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4007,498 +4791,728 @@
       <c r="A33" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="H33" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J33" s="60" t="s">
+      <c r="H33" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="K33" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="L33" s="60" t="s">
+      <c r="K33" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L33" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="M33" s="32" t="s">
+      <c r="M33" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="32"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
+      <c r="B34" s="34"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="32"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
+      <c r="B35" s="34"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="32"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="56"/>
-      <c r="P36" s="55"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="58"/>
+      <c r="P36" s="57"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="29"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="56"/>
-      <c r="P37" s="55"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="58"/>
+      <c r="P37" s="57"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="29"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="63"/>
-      <c r="P38" s="57"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="73"/>
+      <c r="P38" s="59"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="32"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="63"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="73"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="32"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="63"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="73"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="32"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="63"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="73"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="32"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="63"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="73"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="63"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="73"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="63"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="73"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="63"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="73"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="63"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="73"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="63"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="73"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="64"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="64"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="64"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="64"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="63"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="63"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="63"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="63"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="63"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="63"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="64"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="64"/>
-      <c r="M61" s="64"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="70"/>
-      <c r="M62" s="65"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="70"/>
-      <c r="M63" s="64"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="64"/>
-    </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="70"/>
-      <c r="M65" s="64"/>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="70"/>
-      <c r="M66" s="64"/>
-    </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C67" s="62"/>
-      <c r="H67" s="61"/>
-    </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C68" s="62"/>
-      <c r="H68" s="32"/>
-    </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C69" s="62"/>
-      <c r="H69" s="32"/>
-    </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C70" s="62"/>
-      <c r="H70" s="32"/>
-    </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C71" s="62"/>
-      <c r="H71" s="32"/>
-    </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C72" s="62"/>
-    </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C73" s="62"/>
-    </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C74" s="62"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="73"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="83"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="73"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="73"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="73"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="73"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="73"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="73"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="73"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="73"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="73"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="83"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="78"/>
+      <c r="N54" s="73"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="73"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="73"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="73"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="77"/>
+      <c r="N56" s="73"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="73"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="77"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="77"/>
+      <c r="N57" s="73"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="73"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="73"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="83"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="85"/>
+      <c r="M59" s="85"/>
+      <c r="N59" s="73"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="73"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="77"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="73"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="73"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="77"/>
+      <c r="L61" s="77"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="73"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="73"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="84"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="84"/>
+      <c r="N62" s="73"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="73"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="73"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="83"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="79"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="79"/>
+      <c r="M64" s="79"/>
+      <c r="N64" s="73"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="73"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="77"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="73"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="73"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="84"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="77"/>
+      <c r="N66" s="73"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="73"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77"/>
+      <c r="J67" s="84"/>
+      <c r="K67" s="77"/>
+      <c r="L67" s="77"/>
+      <c r="M67" s="77"/>
+      <c r="N67" s="73"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="73"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="73"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="83"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="85"/>
+      <c r="J69" s="85"/>
+      <c r="K69" s="86"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="73"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="73"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="84"/>
+      <c r="K70" s="77"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="77"/>
+      <c r="N70" s="73"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="73"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="77"/>
+      <c r="N71" s="73"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="73"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="77"/>
+      <c r="J72" s="84"/>
+      <c r="K72" s="77"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="77"/>
+      <c r="N72" s="73"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="73"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="84"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="77"/>
+      <c r="N73" s="73"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="73"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="84"/>
+      <c r="J74" s="84"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="79"/>
+      <c r="N74" s="73"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="73"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="79"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="73"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="73"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="73"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="73"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="79"/>
+      <c r="I77" s="79"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
+      <c r="M77" s="79"/>
+      <c r="N77" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="L36:L37"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="E36:E37"/>
@@ -4509,4 +5523,1099 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC9AD89-20C5-0443-9902-AEE102294E76}">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="15" style="87" customWidth="1"/>
+    <col min="3" max="5" width="12" style="89" customWidth="1"/>
+    <col min="6" max="6" width="1" style="89" customWidth="1"/>
+    <col min="7" max="13" width="12" style="89" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="87"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" s="97"/>
+    </row>
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="B2" s="99" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>529</v>
+      </c>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91" t="s">
+        <v>530</v>
+      </c>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+    </row>
+    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="92"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93" t="s">
+        <v>322</v>
+      </c>
+      <c r="H3" s="93" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="93" t="s">
+        <v>324</v>
+      </c>
+      <c r="J3" s="93" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="93" t="s">
+        <v>325</v>
+      </c>
+      <c r="L3" s="93" t="s">
+        <v>323</v>
+      </c>
+      <c r="M3" s="93" t="s">
+        <v>328</v>
+      </c>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+    </row>
+    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" s="28">
+        <v>241752</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+    </row>
+    <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+    </row>
+    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+    </row>
+    <row r="7" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+    </row>
+    <row r="8" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+    </row>
+    <row r="9" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+    </row>
+    <row r="10" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+    </row>
+    <row r="11" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+    </row>
+    <row r="12" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+    </row>
+    <row r="13" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+    </row>
+    <row r="14" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+    </row>
+    <row r="15" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+    </row>
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+    </row>
+    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+    </row>
+    <row r="18" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+    </row>
+    <row r="19" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+    </row>
+    <row r="20" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+    </row>
+    <row r="21" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+    </row>
+    <row r="22" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+    </row>
+    <row r="23" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+    </row>
+    <row r="24" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+    </row>
+    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+    </row>
+    <row r="26" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A26" s="94" t="s">
+        <v>523</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>480</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>480</v>
+      </c>
+      <c r="E26" s="95" t="s">
+        <v>480</v>
+      </c>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95" t="s">
+        <v>480</v>
+      </c>
+      <c r="H26" s="95" t="s">
+        <v>480</v>
+      </c>
+      <c r="I26" s="95" t="s">
+        <v>482</v>
+      </c>
+      <c r="J26" s="95" t="s">
+        <v>484</v>
+      </c>
+      <c r="K26" s="95" t="s">
+        <v>480</v>
+      </c>
+      <c r="L26" s="95" t="s">
+        <v>481</v>
+      </c>
+      <c r="M26" s="95" t="s">
+        <v>483</v>
+      </c>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+    </row>
+    <row r="27" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" s="94" t="s">
+        <v>525</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="C27" s="95" t="s">
+        <v>485</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>485</v>
+      </c>
+      <c r="E27" s="95" t="s">
+        <v>485</v>
+      </c>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95" t="s">
+        <v>485</v>
+      </c>
+      <c r="H27" s="95" t="s">
+        <v>485</v>
+      </c>
+      <c r="I27" s="95" t="s">
+        <v>486</v>
+      </c>
+      <c r="J27" s="95" t="s">
+        <v>301</v>
+      </c>
+      <c r="K27" s="95" t="s">
+        <v>487</v>
+      </c>
+      <c r="L27" s="95" t="s">
+        <v>485</v>
+      </c>
+      <c r="M27" s="95" t="s">
+        <v>488</v>
+      </c>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+    </row>
+    <row r="28" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A28" s="94" t="s">
+        <v>522</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>489</v>
+      </c>
+      <c r="D28" s="95" t="s">
+        <v>489</v>
+      </c>
+      <c r="E28" s="95" t="s">
+        <v>489</v>
+      </c>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95" t="s">
+        <v>489</v>
+      </c>
+      <c r="H28" s="95" t="s">
+        <v>489</v>
+      </c>
+      <c r="I28" s="95" t="s">
+        <v>491</v>
+      </c>
+      <c r="J28" s="95" t="s">
+        <v>490</v>
+      </c>
+      <c r="K28" s="95" t="s">
+        <v>492</v>
+      </c>
+      <c r="L28" s="95" t="s">
+        <v>490</v>
+      </c>
+      <c r="M28" s="95" t="s">
+        <v>491</v>
+      </c>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+    </row>
+    <row r="29" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A29" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>493</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>493</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>493</v>
+      </c>
+      <c r="E29" s="93" t="s">
+        <v>493</v>
+      </c>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93" t="s">
+        <v>493</v>
+      </c>
+      <c r="H29" s="93" t="s">
+        <v>493</v>
+      </c>
+      <c r="I29" s="93" t="s">
+        <v>493</v>
+      </c>
+      <c r="J29" s="93" t="s">
+        <v>493</v>
+      </c>
+      <c r="K29" s="93" t="s">
+        <v>493</v>
+      </c>
+      <c r="L29" s="93" t="s">
+        <v>493</v>
+      </c>
+      <c r="M29" s="93" t="s">
+        <v>494</v>
+      </c>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+    </row>
+    <row r="31" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="D31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+    </row>
+    <row r="32" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="D32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+    </row>
+    <row r="33" spans="14:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+    </row>
+    <row r="34" spans="14:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>